--- a/Morphine Microglia (unpublished)/Figure 8 DREADDs Behavior/Statistics-Morphine CX3-HM4Di-Ribotag.xlsx
+++ b/Morphine Microglia (unpublished)/Figure 8 DREADDs Behavior/Statistics-Morphine CX3-HM4Di-Ribotag.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Neumaier Lab\Morphine Grant\DREADDs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MrCoffey\Documents\GitHub\Manuscripts\Morphine Microglia (unpublished)\Figure 8 DREADDs Behavior\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEF3A25-933B-4E16-A762-436D274AB6C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="10470"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -93,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,6 +228,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -254,6 +280,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -429,25 +472,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -491,7 +534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -536,7 +579,7 @@
         <v>298.3972</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -581,7 +624,7 @@
         <v>854.524</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -626,7 +669,7 @@
         <v>215.99799999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -671,7 +714,7 @@
         <v>500.66</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -716,7 +759,7 @@
         <v>33.732999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -761,7 +804,7 @@
         <v>474.52800000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -806,7 +849,7 @@
         <v>173.33160000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -851,7 +894,7 @@
         <v>389.46280000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -896,7 +939,7 @@
         <v>203.19800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -941,7 +984,7 @@
         <v>41.732799999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -986,7 +1029,7 @@
         <v>95.599199999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1031,7 +1074,7 @@
         <v>425.32799999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1076,7 +1119,7 @@
         <v>324.39679999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1121,7 +1164,7 @@
         <v>288.13040000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1166,7 +1209,7 @@
         <v>826.26</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1211,7 +1254,7 @@
         <v>579.05999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1256,7 +1299,7 @@
         <v>460.79599999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1301,7 +1344,7 @@
         <v>1569.7159999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1346,7 +1389,7 @@
         <v>742.79200000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1391,7 +1434,7 @@
         <v>671.99199999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1479,7 @@
         <v>387.596</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1481,7 +1524,7 @@
         <v>994.524</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1526,7 +1569,7 @@
         <v>928.65599999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1571,7 +1614,7 @@
         <v>753.19200000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1616,7 +1659,7 @@
         <v>862.66</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1661,7 +1704,7 @@
         <v>707.86</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1706,7 +1749,7 @@
         <v>115.0656</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1751,7 +1794,7 @@
         <v>17.9998</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1775,7 +1818,7 @@
         <v>26894</v>
       </c>
       <c r="H30">
-        <v>939.89</v>
+        <v>739.89</v>
       </c>
       <c r="I30">
         <v>10.484500000000001</v>
@@ -1787,16 +1830,16 @@
         <v>216.964</v>
       </c>
       <c r="L30">
-        <v>1363.72</v>
+        <v>1513.72</v>
       </c>
       <c r="M30">
         <v>487.86200000000002</v>
       </c>
       <c r="N30">
-        <v>1645.0519999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1745.0519999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1841,7 +1884,7 @@
         <v>59.732799999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1886,7 +1929,7 @@
         <v>154.5316</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1931,7 +1974,7 @@
         <v>367.59640000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1955,10 +1998,10 @@
         <v>26554</v>
       </c>
       <c r="H34">
-        <v>526.04300000000001</v>
+        <v>426.04300000000001</v>
       </c>
       <c r="I34">
-        <v>5.9431599999999998</v>
+        <v>426.04300000000001</v>
       </c>
       <c r="J34">
         <v>43.396000000000001</v>
@@ -1967,16 +2010,16 @@
         <v>149.93199999999999</v>
       </c>
       <c r="L34">
-        <v>1473.1179999999999</v>
+        <v>1623.1179999999999</v>
       </c>
       <c r="M34">
         <v>454.69499999999999</v>
       </c>
       <c r="N34">
-        <v>1733.048</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1833.048</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2000,10 +2043,10 @@
         <v>26816</v>
       </c>
       <c r="H35">
-        <v>772.85500000000002</v>
+        <v>672.85500000000002</v>
       </c>
       <c r="I35">
-        <v>8.6462800000000009</v>
+        <v>672.85500000000002</v>
       </c>
       <c r="J35">
         <v>40.713099999999997</v>
@@ -2012,16 +2055,16 @@
         <v>144.13200000000001</v>
       </c>
       <c r="L35">
-        <v>1508.0519999999999</v>
+        <v>1658.0519999999999</v>
       </c>
       <c r="M35">
         <v>585.62699999999995</v>
       </c>
       <c r="N35">
-        <v>1253.72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1353.72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2045,10 +2088,10 @@
         <v>26755</v>
       </c>
       <c r="H36">
-        <v>961.34799999999996</v>
+        <v>861.34799999999996</v>
       </c>
       <c r="I36">
-        <v>10.7796</v>
+        <v>861.34799999999996</v>
       </c>
       <c r="J36">
         <v>47.7971</v>
@@ -2057,16 +2100,16 @@
         <v>292.52999999999997</v>
       </c>
       <c r="L36">
-        <v>1203.3219999999999</v>
+        <v>1353.3219999999999</v>
       </c>
       <c r="M36">
         <v>704.19299999999998</v>
       </c>
       <c r="N36">
-        <v>770.524</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>870.524</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2090,10 +2133,10 @@
         <v>26404</v>
       </c>
       <c r="H37">
-        <v>622.84199999999998</v>
+        <v>522.84199999999998</v>
       </c>
       <c r="I37">
-        <v>7.0767499999999997</v>
+        <v>522.84199999999998</v>
       </c>
       <c r="J37">
         <v>49.626199999999997</v>
@@ -2102,16 +2145,16 @@
         <v>377.596</v>
       </c>
       <c r="L37">
-        <v>1042.3219999999999</v>
+        <v>1192.3219999999999</v>
       </c>
       <c r="M37">
         <v>517.19500000000005</v>
       </c>
       <c r="N37">
-        <v>1510.52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1610.52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2135,10 +2178,10 @@
         <v>26760</v>
       </c>
       <c r="H38">
-        <v>1209.5</v>
+        <v>1109.5</v>
       </c>
       <c r="I38">
-        <v>13.5596</v>
+        <v>1109.5</v>
       </c>
       <c r="J38">
         <v>51.315100000000001</v>
@@ -2147,13 +2190,13 @@
         <v>387.72800000000001</v>
       </c>
       <c r="L38">
-        <v>1012.258</v>
+        <v>1162.258</v>
       </c>
       <c r="M38">
         <v>742.09299999999996</v>
       </c>
       <c r="N38">
-        <v>613.19200000000001</v>
+        <v>713.19200000000001</v>
       </c>
     </row>
   </sheetData>
